--- a/data/trans_orig/P33_1_R2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R2-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>16728</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9568</v>
+        <v>10063</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27375</v>
+        <v>27469</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03583792455539882</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02049860155568477</v>
+        <v>0.02155822889619879</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05864960626281475</v>
+        <v>0.05885071635551122</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -765,19 +765,19 @@
         <v>7600</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3242</v>
+        <v>3302</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14459</v>
+        <v>15401</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02478208519440633</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0105715390753473</v>
+        <v>0.01076743487446104</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04714560809232434</v>
+        <v>0.05021716627407494</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -786,19 +786,19 @@
         <v>24328</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15122</v>
+        <v>16237</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36547</v>
+        <v>36499</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03145413620244268</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01955192405826651</v>
+        <v>0.02099350017441776</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04725182060546184</v>
+        <v>0.04719025824586662</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>65593</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>51620</v>
+        <v>51239</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>83007</v>
+        <v>82443</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1405278481804322</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1105915670872045</v>
+        <v>0.1097752588141832</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1778350368651519</v>
+        <v>0.1766281208513141</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>48</v>
@@ -836,19 +836,19 @@
         <v>49161</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>36670</v>
+        <v>37886</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>62363</v>
+        <v>63375</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1603019192770147</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1195705319455254</v>
+        <v>0.1235361716122908</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2033472853057379</v>
+        <v>0.2066495485827513</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>110</v>
@@ -857,19 +857,19 @@
         <v>114755</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>96682</v>
+        <v>97291</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>139243</v>
+        <v>135802</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1483685321604808</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1250025285018398</v>
+        <v>0.1257891699546642</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1800295169829426</v>
+        <v>0.1755810545408432</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>384441</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>366206</v>
+        <v>364828</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>399929</v>
+        <v>399926</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.823634227264169</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7845667150179917</v>
+        <v>0.7816142329650644</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8568157897178859</v>
+        <v>0.8568093676539142</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>243</v>
@@ -907,19 +907,19 @@
         <v>249918</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>234354</v>
+        <v>235595</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>263123</v>
+        <v>262379</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.814915995528579</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7641632616789477</v>
+        <v>0.768210403299581</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8579721027264239</v>
+        <v>0.8555455887798713</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>613</v>
@@ -928,19 +928,19 @@
         <v>634360</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>609730</v>
+        <v>611415</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>655753</v>
+        <v>654038</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8201773316370765</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7883319712036078</v>
+        <v>0.7905105456746347</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8478367209562618</v>
+        <v>0.8456186763815354</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>14255</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7959</v>
+        <v>8153</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>23504</v>
+        <v>25356</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03915866717924309</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02186420753630475</v>
+        <v>0.02239759956830861</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06456721047736566</v>
+        <v>0.06965571970068882</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -1053,19 +1053,19 @@
         <v>4857</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1907</v>
+        <v>1856</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10527</v>
+        <v>11542</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01309534772299446</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005140126780112068</v>
+        <v>0.005003173527779617</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02837944005002293</v>
+        <v>0.0311156487395581</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>18</v>
@@ -1074,19 +1074,19 @@
         <v>19112</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>11884</v>
+        <v>11126</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>30418</v>
+        <v>29986</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02600453889508468</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01617033340927173</v>
+        <v>0.01513788183949484</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04138763143572093</v>
+        <v>0.04079972171847553</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>35690</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>24539</v>
+        <v>24962</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>48462</v>
+        <v>49026</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09804270699380779</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06741148817728436</v>
+        <v>0.06857205652538909</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1331301567178566</v>
+        <v>0.1346787061847114</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>60</v>
@@ -1124,19 +1124,19 @@
         <v>61435</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>47354</v>
+        <v>47936</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>76499</v>
+        <v>75910</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.165625390498829</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1276639509360579</v>
+        <v>0.1292310064499309</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2062372109414971</v>
+        <v>0.2046496539233984</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>91</v>
@@ -1145,19 +1145,19 @@
         <v>97125</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>79674</v>
+        <v>80453</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>116880</v>
+        <v>117958</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1321516120434902</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1084073162589038</v>
+        <v>0.109467318854432</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1590303708805182</v>
+        <v>0.160497992072102</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>314078</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>297875</v>
+        <v>300574</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>326839</v>
+        <v>328151</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8627986258269491</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.818288624588259</v>
+        <v>0.8257024492420527</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8978544883958471</v>
+        <v>0.9014597190884048</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>297</v>
@@ -1195,19 +1195,19 @@
         <v>304636</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>288936</v>
+        <v>289754</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>319837</v>
+        <v>318638</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8212792617781766</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7789519151265788</v>
+        <v>0.7811575199092653</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8622587655875421</v>
+        <v>0.8590277292439888</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>600</v>
@@ -1216,19 +1216,19 @@
         <v>618714</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>597655</v>
+        <v>594325</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>636754</v>
+        <v>635786</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8418438490614252</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.813190885673585</v>
+        <v>0.8086599874109408</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8663900527256023</v>
+        <v>0.865072434662341</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>21162</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13519</v>
+        <v>13181</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>32662</v>
+        <v>32234</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03942157236077474</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02518408393327317</v>
+        <v>0.02455330527623988</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06084492785969162</v>
+        <v>0.06004617321738197</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -1341,19 +1341,19 @@
         <v>6584</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2596</v>
+        <v>2675</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13890</v>
+        <v>14210</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04000781238127529</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01577539214310724</v>
+        <v>0.01625270002969621</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0844093190152836</v>
+        <v>0.08635356915596394</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>27</v>
@@ -1362,19 +1362,19 @@
         <v>27746</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>18313</v>
+        <v>19222</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>41644</v>
+        <v>38813</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03955911937185997</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02611036558316803</v>
+        <v>0.0274062514526072</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05937456540418563</v>
+        <v>0.05533839360566173</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>81932</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>65755</v>
+        <v>65318</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>101368</v>
+        <v>99307</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1526269082574919</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1224913202205489</v>
+        <v>0.1216764012705658</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.188832922921127</v>
+        <v>0.1849921002087342</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -1412,19 +1412,19 @@
         <v>36168</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26491</v>
+        <v>25972</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48622</v>
+        <v>48441</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2197866296912438</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1609826648174318</v>
+        <v>0.1578278052427071</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2954650467006203</v>
+        <v>0.2943660965641907</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>116</v>
@@ -1433,19 +1433,19 @@
         <v>118101</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>99361</v>
+        <v>100402</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>141472</v>
+        <v>137085</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1683843090242324</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1416658638893963</v>
+        <v>0.1431505518633732</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2017064235803995</v>
+        <v>0.1954509425660199</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>433720</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>414415</v>
+        <v>414866</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>452254</v>
+        <v>453425</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8079515193817334</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7719887796276046</v>
+        <v>0.7728285607142744</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8424767969805208</v>
+        <v>0.8446586123019888</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>120</v>
@@ -1483,19 +1483,19 @@
         <v>121809</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>108992</v>
+        <v>109217</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>132291</v>
+        <v>132860</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.740205557927481</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6623223720217163</v>
+        <v>0.6636886294826292</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8039049042395081</v>
+        <v>0.807363198086993</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>544</v>
@@ -1504,19 +1504,19 @@
         <v>555529</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>530421</v>
+        <v>535614</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>575743</v>
+        <v>578253</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7920565716039076</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.756257958153993</v>
+        <v>0.763661431677903</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8208756909304181</v>
+        <v>0.8244545538616754</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>58596</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>44526</v>
+        <v>44256</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>75226</v>
+        <v>74047</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04816821473266163</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0366020798280731</v>
+        <v>0.03638013265307975</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0618391681433755</v>
+        <v>0.06086937277256376</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>26</v>
@@ -1629,19 +1629,19 @@
         <v>26638</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17281</v>
+        <v>18285</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>39460</v>
+        <v>37977</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03766803003556085</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02443675183893734</v>
+        <v>0.0258560790488272</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05579909445800044</v>
+        <v>0.05370191589314247</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>85</v>
@@ -1650,19 +1650,19 @@
         <v>85234</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>68789</v>
+        <v>68551</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>103457</v>
+        <v>105039</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04430814842516333</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03575970511827032</v>
+        <v>0.03563592891581331</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05378144836066135</v>
+        <v>0.05460389106407423</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>209728</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>185032</v>
+        <v>183752</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>239137</v>
+        <v>237495</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1724052738470574</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1521041359652213</v>
+        <v>0.1510513051375398</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1965803792283558</v>
+        <v>0.1952309105825298</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>122</v>
@@ -1700,19 +1700,19 @@
         <v>124105</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>105882</v>
+        <v>104541</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>144787</v>
+        <v>144969</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1754942593383742</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1497252683678884</v>
+        <v>0.1478288273357704</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2047400100273992</v>
+        <v>0.2049977322123751</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>330</v>
@@ -1721,19 +1721,19 @@
         <v>333833</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>301444</v>
+        <v>303241</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>365697</v>
+        <v>369845</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1735408432835337</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.156703772987737</v>
+        <v>0.1576376478834671</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1901050185312053</v>
+        <v>0.1922611160358255</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>948161</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>918597</v>
+        <v>917241</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>974366</v>
+        <v>976588</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.779426511420281</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7551242632886114</v>
+        <v>0.7540095833212132</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8009685855215896</v>
+        <v>0.8027950200826232</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>539</v>
@@ -1771,19 +1771,19 @@
         <v>556430</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>532241</v>
+        <v>533123</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>577078</v>
+        <v>577450</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7868377106260649</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7526326385399505</v>
+        <v>0.7538798408206572</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8160355401674523</v>
+        <v>0.8165616653765813</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1474</v>
@@ -1792,19 +1792,19 @@
         <v>1504591</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1469802</v>
+        <v>1464348</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1538344</v>
+        <v>1535663</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.782151008291303</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7640659965431836</v>
+        <v>0.7612307644780423</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7996972085325037</v>
+        <v>0.7983035789691032</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>20604</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>13082</v>
+        <v>13469</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>29549</v>
+        <v>30037</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0596356149879188</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03786554991755757</v>
+        <v>0.03898469402346494</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08552666328029779</v>
+        <v>0.08693797436195583</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>24</v>
@@ -1917,19 +1917,19 @@
         <v>26597</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>18158</v>
+        <v>17072</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>38520</v>
+        <v>38905</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04676419991945353</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03192665284630063</v>
+        <v>0.03001614778613983</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06772694023161049</v>
+        <v>0.06840384206301449</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>46</v>
@@ -1938,19 +1938,19 @@
         <v>47201</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>35598</v>
+        <v>35278</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>61437</v>
+        <v>60991</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05162835087103709</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03893720273285306</v>
+        <v>0.03858711003911827</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06719921034905273</v>
+        <v>0.06671103620550523</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>51720</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>38608</v>
+        <v>39672</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>64680</v>
+        <v>66522</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1496968614175509</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.111746294976371</v>
+        <v>0.1148244481800628</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1872092301366246</v>
+        <v>0.1925381355379465</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>107</v>
@@ -1988,19 +1988,19 @@
         <v>114504</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>97297</v>
+        <v>96336</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>137086</v>
+        <v>136759</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2013255526219745</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1710712121966285</v>
+        <v>0.1693807328151496</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2410299843585726</v>
+        <v>0.2404546312737812</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>158</v>
@@ -2009,19 +2009,19 @@
         <v>166224</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>142018</v>
+        <v>145649</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>190033</v>
+        <v>191808</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1818148969469607</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1553386848564529</v>
+        <v>0.1593094128421594</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2078561969586296</v>
+        <v>0.2097981940621824</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>273174</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>257482</v>
+        <v>257761</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>287153</v>
+        <v>287375</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7906675235945303</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7452480544350262</v>
+        <v>0.7460575478330889</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8311272263660605</v>
+        <v>0.8317689457179067</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>408</v>
@@ -2059,19 +2059,19 @@
         <v>427650</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>403363</v>
+        <v>406007</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>447260</v>
+        <v>448630</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7519102474585719</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7092064357952618</v>
+        <v>0.7138551759338828</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7863891530011946</v>
+        <v>0.788796759756433</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>670</v>
@@ -2080,19 +2080,19 @@
         <v>700825</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>676047</v>
+        <v>672926</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>728331</v>
+        <v>724291</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7665567521820023</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7394553627026553</v>
+        <v>0.7360416947027992</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7966429580171334</v>
+        <v>0.792224006424587</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>9045</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4394</v>
+        <v>4592</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16373</v>
+        <v>19240</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03079846519449462</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01496220838076185</v>
+        <v>0.01563621889585096</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0557516083564645</v>
+        <v>0.06551643140842618</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>55</v>
@@ -2205,19 +2205,19 @@
         <v>58978</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>45136</v>
+        <v>43495</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>74923</v>
+        <v>74706</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04764101608690906</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03645949351018042</v>
+        <v>0.03513388976055206</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06052052301568341</v>
+        <v>0.06034536360100458</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>64</v>
@@ -2226,19 +2226,19 @@
         <v>68023</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>52719</v>
+        <v>52850</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>86290</v>
+        <v>85460</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04441170560958868</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03442007522799975</v>
+        <v>0.03450543213947236</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05633852689075719</v>
+        <v>0.05579616141450112</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>13326</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7393</v>
+        <v>7096</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>22640</v>
+        <v>23148</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04537790053010461</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02517424039456394</v>
+        <v>0.02416317647125025</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0770935720059099</v>
+        <v>0.07882356394871072</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>284</v>
@@ -2276,19 +2276,19 @@
         <v>290371</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>260698</v>
+        <v>261577</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>322359</v>
+        <v>321326</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.234554242302396</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2105850201976622</v>
+        <v>0.2112951836177499</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2603931396521685</v>
+        <v>0.2595584296469797</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>297</v>
@@ -2297,19 +2297,19 @@
         <v>303697</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>275840</v>
+        <v>272698</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>337598</v>
+        <v>333926</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1982824716870823</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.180094908368861</v>
+        <v>0.1780432952471968</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2204163921383884</v>
+        <v>0.2180188296057738</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>271298</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>260755</v>
+        <v>260636</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>279022</v>
+        <v>279818</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9238236342754008</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8879223788779242</v>
+        <v>0.8875155112131022</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9501231990899093</v>
+        <v>0.9528349040753856</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>888</v>
@@ -2347,19 +2347,19 @@
         <v>888621</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>857090</v>
+        <v>856407</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>921211</v>
+        <v>919992</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.717804741610695</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6923347394042676</v>
+        <v>0.6917836803595038</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.744130018676342</v>
+        <v>0.7431454997984229</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1167</v>
@@ -2368,19 +2368,19 @@
         <v>1159919</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1126272</v>
+        <v>1126065</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1191789</v>
+        <v>1190023</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.757305822703329</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7353375822392724</v>
+        <v>0.7352028966406637</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7781132875244806</v>
+        <v>0.7769603590716611</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>140389</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>117511</v>
+        <v>119173</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>166841</v>
+        <v>162923</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04355507434970443</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03645739648984991</v>
+        <v>0.03697285176518156</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05176182723213291</v>
+        <v>0.05054602563076972</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>123</v>
@@ -2493,19 +2493,19 @@
         <v>131255</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>110246</v>
+        <v>110367</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>156539</v>
+        <v>155941</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03910965115995838</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03284978548307051</v>
+        <v>0.03288593150366197</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04664359802711621</v>
+        <v>0.04646528091198874</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>263</v>
@@ -2514,19 +2514,19 @@
         <v>271644</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>240373</v>
+        <v>241194</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>306750</v>
+        <v>305496</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0412874941439192</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03653467230179186</v>
+        <v>0.0366594477679168</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04662344095662151</v>
+        <v>0.04643281473044404</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>457990</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>419355</v>
+        <v>418873</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>502269</v>
+        <v>500717</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1420893539821706</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1301029329523791</v>
+        <v>0.1299534891337484</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1558266934226322</v>
+        <v>0.1553453006100373</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>656</v>
@@ -2564,19 +2564,19 @@
         <v>675745</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>625183</v>
+        <v>633482</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>719854</v>
+        <v>724732</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2013504419869467</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1862845494206272</v>
+        <v>0.1887572916796119</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2144934542703566</v>
+        <v>0.2159470893834274</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1102</v>
@@ -2585,19 +2585,19 @@
         <v>1133735</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1066346</v>
+        <v>1078286</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1197928</v>
+        <v>1204069</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1723180328721557</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1620754851546357</v>
+        <v>0.1638903212797282</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1820747743490061</v>
+        <v>0.1830081426557421</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>2624873</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2578125</v>
+        <v>2581108</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2667372</v>
+        <v>2671471</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.814355571668125</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7998520281008531</v>
+        <v>0.8007775485194508</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8275406910295158</v>
+        <v>0.8288122332686209</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2495</v>
@@ -2635,19 +2635,19 @@
         <v>2549065</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2502884</v>
+        <v>2498836</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2603337</v>
+        <v>2595434</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.7595399068530949</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.7457792133784279</v>
+        <v>0.7445732651672021</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7757112658939272</v>
+        <v>0.7733563498708368</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>5068</v>
@@ -2656,19 +2656,19 @@
         <v>5173939</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>5104311</v>
+        <v>5097815</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5243176</v>
+        <v>5230428</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7863944729839251</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7758117443051582</v>
+        <v>0.7748243212729595</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.7969179812424174</v>
+        <v>0.7949803236707743</v>
       </c>
     </row>
     <row r="31">
@@ -3002,19 +3002,19 @@
         <v>16425</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8397</v>
+        <v>9107</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27811</v>
+        <v>29924</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03756780885450276</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01920656859271336</v>
+        <v>0.02082870387427357</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06361050681751966</v>
+        <v>0.06844303276448148</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -3023,19 +3023,19 @@
         <v>4042</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12407</v>
+        <v>13126</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01285553268880373</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003252426084866693</v>
+        <v>0.003229559209419996</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03945411590625658</v>
+        <v>0.0417410178464493</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -3044,19 +3044,19 @@
         <v>20468</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10909</v>
+        <v>11477</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32572</v>
+        <v>34188</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02722958634310072</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01451325256592149</v>
+        <v>0.0152684079620466</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04333260273802151</v>
+        <v>0.04548293578468103</v>
       </c>
     </row>
     <row r="5">
@@ -3073,19 +3073,19 @@
         <v>87777</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>72580</v>
+        <v>69877</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>109285</v>
+        <v>105227</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.200766899591052</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1660059377892691</v>
+        <v>0.159825226967705</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2499597353608975</v>
+        <v>0.240678647302158</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>53</v>
@@ -3094,19 +3094,19 @@
         <v>59481</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>45571</v>
+        <v>45289</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>73858</v>
+        <v>76986</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1891567284242361</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1449226212933558</v>
+        <v>0.1440247782290274</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2348775793574431</v>
+        <v>0.24482465087649</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>134</v>
@@ -3115,19 +3115,19 @@
         <v>147259</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>126479</v>
+        <v>124901</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>173597</v>
+        <v>170679</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1959098588185549</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1682654191791081</v>
+        <v>0.1661657535792604</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2309493545043206</v>
+        <v>0.2270675842451572</v>
       </c>
     </row>
     <row r="6">
@@ -3144,19 +3144,19 @@
         <v>333008</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>311804</v>
+        <v>313255</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>350250</v>
+        <v>351855</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7616652915544453</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7131666506004779</v>
+        <v>0.7164844784986537</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8011011883768825</v>
+        <v>0.8047714525257563</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>227</v>
@@ -3165,19 +3165,19 @@
         <v>250930</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>235289</v>
+        <v>232966</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>264656</v>
+        <v>264791</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7979877388869602</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7482463590642257</v>
+        <v>0.7408589546227267</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.841636030018831</v>
+        <v>0.8420654719191516</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>537</v>
@@ -3186,19 +3186,19 @@
         <v>583939</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>556014</v>
+        <v>561012</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>606288</v>
+        <v>607022</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7768605548383444</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7397097506490781</v>
+        <v>0.7463586547466722</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8065927651355771</v>
+        <v>0.8075695585008301</v>
       </c>
     </row>
     <row r="7">
@@ -3290,19 +3290,19 @@
         <v>14566</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7518</v>
+        <v>7979</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>25818</v>
+        <v>25978</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03485720763139684</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01799085787139148</v>
+        <v>0.01909418586651858</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06178629516396935</v>
+        <v>0.06216984365521907</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -3311,19 +3311,19 @@
         <v>9207</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4981</v>
+        <v>4161</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17576</v>
+        <v>16165</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0272379483182009</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01473582711595683</v>
+        <v>0.01231105255702691</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05199969274437066</v>
+        <v>0.0478236170420592</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>21</v>
@@ -3332,19 +3332,19 @@
         <v>23772</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>14325</v>
+        <v>15274</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>36999</v>
+        <v>37278</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03145002875666563</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01895159818764459</v>
+        <v>0.02020649374665259</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04894933403650139</v>
+        <v>0.049317918187501</v>
       </c>
     </row>
     <row r="9">
@@ -3361,19 +3361,19 @@
         <v>91611</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>74027</v>
+        <v>75031</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>111139</v>
+        <v>109791</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.219237176582487</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1771565987344836</v>
+        <v>0.1795584560925426</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2659700803775517</v>
+        <v>0.2627453864188566</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>76</v>
@@ -3382,19 +3382,19 @@
         <v>85507</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>69866</v>
+        <v>66985</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>103289</v>
+        <v>102596</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.252972287806542</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2066986502271856</v>
+        <v>0.1981749645102932</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3055780261071342</v>
+        <v>0.3035295156628774</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>159</v>
@@ -3403,19 +3403,19 @@
         <v>177118</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>155232</v>
+        <v>150988</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>203237</v>
+        <v>201921</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2343228369563554</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2053678822492155</v>
+        <v>0.1997535825389187</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2688775812582344</v>
+        <v>0.2671357699281453</v>
       </c>
     </row>
     <row r="10">
@@ -3432,19 +3432,19 @@
         <v>311686</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>291632</v>
+        <v>293165</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>331167</v>
+        <v>330003</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7459056157861161</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6979157019515437</v>
+        <v>0.7015823581293291</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7925279667311845</v>
+        <v>0.7897406856944362</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>220</v>
@@ -3453,19 +3453,19 @@
         <v>243297</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>224659</v>
+        <v>224738</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>259593</v>
+        <v>261274</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7197897638752572</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6646490506613875</v>
+        <v>0.6648822319191832</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7680027319849208</v>
+        <v>0.7729738078237105</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>499</v>
@@ -3474,19 +3474,19 @@
         <v>554982</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>526494</v>
+        <v>530911</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>577827</v>
+        <v>583760</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7342271342869789</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6965374140041891</v>
+        <v>0.7023811457716292</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.764449954662434</v>
+        <v>0.7722992240972008</v>
       </c>
     </row>
     <row r="11">
@@ -3578,19 +3578,19 @@
         <v>35211</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>25058</v>
+        <v>23765</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>48692</v>
+        <v>48146</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05612510053173949</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03994116756734514</v>
+        <v>0.03788068912719862</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0776131139062271</v>
+        <v>0.07674321142634319</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -3599,19 +3599,19 @@
         <v>8070</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3114</v>
+        <v>3136</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15416</v>
+        <v>15657</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03142762524655115</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01212595932958942</v>
+        <v>0.01221225902224646</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06003559778798066</v>
+        <v>0.06097282140555268</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>41</v>
@@ -3620,19 +3620,19 @@
         <v>43281</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>30764</v>
+        <v>31943</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>57806</v>
+        <v>57616</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04895227241182552</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03479576549717382</v>
+        <v>0.03612835046703412</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0653813887146885</v>
+        <v>0.06516602297971127</v>
       </c>
     </row>
     <row r="13">
@@ -3649,19 +3649,19 @@
         <v>134503</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>114699</v>
+        <v>115403</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>156981</v>
+        <v>156773</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2143948944618501</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1828276814727235</v>
+        <v>0.1839499390836299</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2502235108834753</v>
+        <v>0.2498926865768539</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>64</v>
@@ -3670,19 +3670,19 @@
         <v>66660</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>53426</v>
+        <v>53651</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>79445</v>
+        <v>81008</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2596008377633864</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2080631071842121</v>
+        <v>0.2089388535766436</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.309389085094059</v>
+        <v>0.3154769599741691</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>190</v>
@@ -3691,19 +3691,19 @@
         <v>201164</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>177367</v>
+        <v>179458</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>228293</v>
+        <v>228786</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2275239474341172</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2006095108617991</v>
+        <v>0.2029738833531787</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2582083777003656</v>
+        <v>0.2587657138337124</v>
       </c>
     </row>
     <row r="14">
@@ -3720,19 +3720,19 @@
         <v>457649</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>434125</v>
+        <v>436497</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>479039</v>
+        <v>479898</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7294800050064104</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6919832618953531</v>
+        <v>0.6957646984458375</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7635753614520493</v>
+        <v>0.764944374793158</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>170</v>
@@ -3741,19 +3741,19 @@
         <v>182049</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>168030</v>
+        <v>165966</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>194943</v>
+        <v>196308</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7089715369900624</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6543756878750485</v>
+        <v>0.6463363833314237</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7591864261556726</v>
+        <v>0.7645028578828119</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>599</v>
@@ -3762,19 +3762,19 @@
         <v>639698</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>611965</v>
+        <v>610806</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>664688</v>
+        <v>664194</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7235237801540573</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6921566278709229</v>
+        <v>0.6908449318922163</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7517883782914729</v>
+        <v>0.7512296690218514</v>
       </c>
     </row>
     <row r="15">
@@ -3866,19 +3866,19 @@
         <v>70033</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>56294</v>
+        <v>54505</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>90661</v>
+        <v>88136</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06079216636429707</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04886575838620367</v>
+        <v>0.04731338573011104</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07869825432913999</v>
+        <v>0.07650708507040732</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -3887,19 +3887,19 @@
         <v>27379</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18093</v>
+        <v>19133</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>39920</v>
+        <v>40974</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03571160735238243</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02359991660023821</v>
+        <v>0.02495607069798534</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05207074995154545</v>
+        <v>0.05344490416824799</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>90</v>
@@ -3908,19 +3908,19 @@
         <v>97411</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>77934</v>
+        <v>81032</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>119555</v>
+        <v>119970</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0507704930040393</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04061878645406426</v>
+        <v>0.04223357066468997</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06231173393788986</v>
+        <v>0.06252784188470036</v>
       </c>
     </row>
     <row r="17">
@@ -3937,19 +3937,19 @@
         <v>244376</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>216277</v>
+        <v>216555</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>271986</v>
+        <v>272435</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2121307795564417</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1877396071513508</v>
+        <v>0.1879809945174771</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2360979970106724</v>
+        <v>0.2364883252358706</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>180</v>
@@ -3958,19 +3958,19 @@
         <v>195386</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>169419</v>
+        <v>169607</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>220500</v>
+        <v>220359</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2548543328223799</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.22098467883743</v>
+        <v>0.2212295248304743</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2876119256670896</v>
+        <v>0.2874284851175724</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>409</v>
@@ -3979,19 +3979,19 @@
         <v>439761</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>402123</v>
+        <v>404042</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>477137</v>
+        <v>478744</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2292022290172535</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2095854370608486</v>
+        <v>0.210585311003219</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2486824288401323</v>
+        <v>0.24951998584987</v>
       </c>
     </row>
     <row r="18">
@@ -4008,19 +4008,19 @@
         <v>837596</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>804725</v>
+        <v>807169</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>869287</v>
+        <v>869169</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7270770540792612</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6985437910998533</v>
+        <v>0.7006650158805796</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7545866170801241</v>
+        <v>0.7544839899620474</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>506</v>
@@ -4029,19 +4029,19 @@
         <v>543893</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>518331</v>
+        <v>518621</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>568998</v>
+        <v>572317</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7094340598252377</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.676093000589883</v>
+        <v>0.6764705500727076</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7421800204502353</v>
+        <v>0.7465093651419553</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1289</v>
@@ -4050,19 +4050,19 @@
         <v>1381488</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1345400</v>
+        <v>1338936</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1419468</v>
+        <v>1421290</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7200272779787072</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7012181527145716</v>
+        <v>0.6978490293300088</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7398222471923029</v>
+        <v>0.7407717123330859</v>
       </c>
     </row>
     <row r="19">
@@ -4154,19 +4154,19 @@
         <v>43045</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>30636</v>
+        <v>32025</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>56126</v>
+        <v>57015</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0845199488833898</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06015486126563335</v>
+        <v>0.06288173834188042</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1102042227133149</v>
+        <v>0.111951212364111</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>41</v>
@@ -4175,19 +4175,19 @@
         <v>45434</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>32847</v>
+        <v>32781</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>61885</v>
+        <v>60870</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05973956948781542</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04318919370235834</v>
+        <v>0.04310210654223955</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08137026216165778</v>
+        <v>0.08003508595718457</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>81</v>
@@ -4196,19 +4196,19 @@
         <v>88479</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>71576</v>
+        <v>71254</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>109024</v>
+        <v>108801</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06967820061440728</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05636666715497535</v>
+        <v>0.0561134444679471</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08585700503248349</v>
+        <v>0.08568157306657634</v>
       </c>
     </row>
     <row r="21">
@@ -4225,19 +4225,19 @@
         <v>101304</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>83979</v>
+        <v>84453</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>121609</v>
+        <v>120685</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1989130541731724</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1648952728619724</v>
+        <v>0.1658265505578418</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2387824165488459</v>
+        <v>0.2369685590270541</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>227</v>
@@ -4246,19 +4246,19 @@
         <v>242349</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>215723</v>
+        <v>217984</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>268346</v>
+        <v>271476</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3186540081809479</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2836445791026068</v>
+        <v>0.2866177165802952</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3528356711280352</v>
+        <v>0.3569510900154781</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>325</v>
@@ -4267,19 +4267,19 @@
         <v>343653</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>314515</v>
+        <v>310000</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>379618</v>
+        <v>375665</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2706296759609974</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2476827884680523</v>
+        <v>0.2441272566366607</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2989525670909524</v>
+        <v>0.2958393486111179</v>
       </c>
     </row>
     <row r="22">
@@ -4296,19 +4296,19 @@
         <v>364939</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>341039</v>
+        <v>345750</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>385709</v>
+        <v>383833</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7165669969434378</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6696385291787841</v>
+        <v>0.6788892160285473</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7573494400522178</v>
+        <v>0.7536657685812019</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>434</v>
@@ -4317,19 +4317,19 @@
         <v>472757</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>443799</v>
+        <v>441965</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>499298</v>
+        <v>499023</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6216064223312366</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.583531638903069</v>
+        <v>0.5811194966155087</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6565042595522345</v>
+        <v>0.656142655538629</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>782</v>
@@ -4338,19 +4338,19 @@
         <v>837696</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>800325</v>
+        <v>804155</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>870898</v>
+        <v>873085</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6596921234245954</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6302621917188558</v>
+        <v>0.6332785319267018</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6858391429505155</v>
+        <v>0.6875617087841945</v>
       </c>
     </row>
     <row r="23">
@@ -4442,19 +4442,19 @@
         <v>14157</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8017</v>
+        <v>7952</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>24178</v>
+        <v>24487</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0532344252272607</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03014701159268693</v>
+        <v>0.02990464998072517</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09091976317059325</v>
+        <v>0.09208246320384153</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>81</v>
@@ -4463,19 +4463,19 @@
         <v>86951</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>70046</v>
+        <v>69423</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>106892</v>
+        <v>106705</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07873673149673013</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0634283927746853</v>
+        <v>0.06286416198898778</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09679294105856419</v>
+        <v>0.09662401970687197</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>94</v>
@@ -4484,19 +4484,19 @@
         <v>101108</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>82481</v>
+        <v>82428</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>123019</v>
+        <v>123301</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07378747358815209</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06019372823605502</v>
+        <v>0.06015477506682344</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08977771917055941</v>
+        <v>0.08998360403619493</v>
       </c>
     </row>
     <row r="25">
@@ -4513,19 +4513,19 @@
         <v>31512</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>21770</v>
+        <v>21953</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>44024</v>
+        <v>43571</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.118496874179363</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08186387496808496</v>
+        <v>0.08255331514709251</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1655484633743764</v>
+        <v>0.1638447950705967</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>301</v>
@@ -4534,19 +4534,19 @@
         <v>320176</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>290179</v>
+        <v>291434</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>350578</v>
+        <v>350488</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2899269437035288</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2627645050868945</v>
+        <v>0.2639010137519072</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3174570290928297</v>
+        <v>0.317375671795845</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>332</v>
@@ -4555,19 +4555,19 @@
         <v>351687</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>320673</v>
+        <v>319459</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>389249</v>
+        <v>382666</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.256657339833376</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2340235162480696</v>
+        <v>0.2331371616308895</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2840693443625477</v>
+        <v>0.2792649061018272</v>
       </c>
     </row>
     <row r="26">
@@ -4584,19 +4584,19 @@
         <v>220260</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>205727</v>
+        <v>206741</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>231243</v>
+        <v>231609</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8282687005933763</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7736181583736697</v>
+        <v>0.7774321238166847</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8695714697540152</v>
+        <v>0.870944767803343</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>657</v>
@@ -4605,19 +4605,19 @@
         <v>697205</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>663311</v>
+        <v>664293</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>729505</v>
+        <v>730142</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6313363247997411</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6006449835884843</v>
+        <v>0.6015335184666691</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6605849380988671</v>
+        <v>0.6611618088883819</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>877</v>
@@ -4626,19 +4626,19 @@
         <v>917465</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>878472</v>
+        <v>883502</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>949728</v>
+        <v>954982</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6695551865784719</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6410989369847401</v>
+        <v>0.6447695727398387</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6931002654411274</v>
+        <v>0.6969352367326587</v>
       </c>
     </row>
     <row r="27">
@@ -4730,19 +4730,19 @@
         <v>193436</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>167645</v>
+        <v>164403</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>227002</v>
+        <v>222529</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05673174242934827</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0491676012730445</v>
+        <v>0.04821678079079712</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06657628697122703</v>
+        <v>0.0652642941461056</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>166</v>
@@ -4751,19 +4751,19 @@
         <v>181084</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>153948</v>
+        <v>156197</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>207624</v>
+        <v>210929</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05114236584694726</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04347869734051018</v>
+        <v>0.04411389539035253</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0586380475330853</v>
+        <v>0.05957153636435072</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>343</v>
@@ -4772,19 +4772,19 @@
         <v>374519</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>336506</v>
+        <v>339695</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>415149</v>
+        <v>415262</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05388433279923194</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04841517576648696</v>
+        <v>0.04887389044488764</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05973002419966637</v>
+        <v>0.05974628849478397</v>
       </c>
     </row>
     <row r="29">
@@ -4801,19 +4801,19 @@
         <v>691083</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>648113</v>
+        <v>645323</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>745735</v>
+        <v>740479</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2026840856455894</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1900815582359995</v>
+        <v>0.1892635716089395</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2187127724532093</v>
+        <v>0.2171713681943239</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>901</v>
@@ -4822,19 +4822,19 @@
         <v>969559</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>910853</v>
+        <v>913698</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1022977</v>
+        <v>1024812</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2738269561745448</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2572469919101755</v>
+        <v>0.25805033473983</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2889133269663056</v>
+        <v>0.2894316752420444</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1549</v>
@@ -4843,19 +4843,19 @@
         <v>1660642</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1590991</v>
+        <v>1588890</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1733684</v>
+        <v>1741013</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2389265702361067</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2289054604337843</v>
+        <v>0.2286031469040174</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2494355833012955</v>
+        <v>0.2504900386793396</v>
       </c>
     </row>
     <row r="30">
@@ -4872,19 +4872,19 @@
         <v>2525137</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2470212</v>
+        <v>2471974</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2574730</v>
+        <v>2577836</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.7405841719250623</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7244756355491205</v>
+        <v>0.7249922809279468</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7551291194765384</v>
+        <v>0.7560402503205947</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2214</v>
@@ -4893,19 +4893,19 @@
         <v>2390131</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2336710</v>
+        <v>2332807</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2450800</v>
+        <v>2444063</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.6750306779785079</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.6599431793895235</v>
+        <v>0.6588410237900137</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6921650286280577</v>
+        <v>0.6902622952994385</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>4583</v>
@@ -4914,19 +4914,19 @@
         <v>4915268</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>4834270</v>
+        <v>4825927</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4996070</v>
+        <v>4993866</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7071890969646614</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.6955354210219392</v>
+        <v>0.6943351795782425</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.7188145706707891</v>
+        <v>0.7184975822071072</v>
       </c>
     </row>
     <row r="31">
@@ -5260,19 +5260,19 @@
         <v>15292</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9185</v>
+        <v>8757</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24674</v>
+        <v>24396</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03563780132903901</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02140450515407629</v>
+        <v>0.02040920789067181</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05750310761714269</v>
+        <v>0.05685450510540554</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -5281,19 +5281,19 @@
         <v>8349</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3296</v>
+        <v>3959</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15301</v>
+        <v>15516</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02405800469582899</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009497087517226041</v>
+        <v>0.01140860252899467</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04408844697069927</v>
+        <v>0.04470749353199144</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -5302,19 +5302,19 @@
         <v>23641</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15135</v>
+        <v>14707</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34160</v>
+        <v>34186</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03045988314072592</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01950075236350688</v>
+        <v>0.01894844623048484</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04401245325989349</v>
+        <v>0.04404518323903889</v>
       </c>
     </row>
     <row r="5">
@@ -5331,19 +5331,19 @@
         <v>76942</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>62121</v>
+        <v>60618</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>95590</v>
+        <v>95000</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1793124152198162</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1447726394364344</v>
+        <v>0.1412700862079833</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2227720080156085</v>
+        <v>0.221398085852767</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>57</v>
@@ -5352,19 +5352,19 @@
         <v>61679</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>47901</v>
+        <v>48373</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>78100</v>
+        <v>77914</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1777197009762856</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1380222596042465</v>
+        <v>0.1393802753625236</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2250367251188296</v>
+        <v>0.2244998481287905</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>126</v>
@@ -5373,19 +5373,19 @@
         <v>138620</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>117277</v>
+        <v>116707</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>160892</v>
+        <v>162453</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1786002313782873</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1511015403304299</v>
+        <v>0.1503677077365377</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.207295745635422</v>
+        <v>0.2093074436105609</v>
       </c>
     </row>
     <row r="6">
@@ -5402,19 +5402,19 @@
         <v>336859</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>319025</v>
+        <v>317483</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>353336</v>
+        <v>353301</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7850497834511448</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7434886685025818</v>
+        <v>0.7398955248680725</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8234500898364903</v>
+        <v>0.8233689092360601</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>267</v>
@@ -5423,19 +5423,19 @@
         <v>277027</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>260390</v>
+        <v>260465</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>291211</v>
+        <v>291227</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7982222943278854</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7502856243302453</v>
+        <v>0.7504999816528835</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8390905938706014</v>
+        <v>0.8391384257523078</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>579</v>
@@ -5444,19 +5444,19 @@
         <v>613886</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>590102</v>
+        <v>588908</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>636197</v>
+        <v>636455</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7909398854809867</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7602970773153291</v>
+        <v>0.7587579634238796</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8196864429850191</v>
+        <v>0.8200182457171965</v>
       </c>
     </row>
     <row r="7">
@@ -5548,19 +5548,19 @@
         <v>19379</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12362</v>
+        <v>12560</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>30078</v>
+        <v>28990</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05149647466332537</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03285019429282912</v>
+        <v>0.0333750944776304</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07992673879066815</v>
+        <v>0.07703721617653596</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -5569,19 +5569,19 @@
         <v>8483</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3925</v>
+        <v>3827</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14905</v>
+        <v>16455</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02278620151264829</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01054370581586678</v>
+        <v>0.01027913844330028</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04003708437679609</v>
+        <v>0.04420147824669848</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>28</v>
@@ -5590,19 +5590,19 @@
         <v>27862</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>18761</v>
+        <v>19000</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>38889</v>
+        <v>39980</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03721884639984512</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02506177714893814</v>
+        <v>0.02538158936833651</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05194949404048772</v>
+        <v>0.05340753681969461</v>
       </c>
     </row>
     <row r="9">
@@ -5619,19 +5619,19 @@
         <v>78659</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>63620</v>
+        <v>64830</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>96741</v>
+        <v>96973</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2090251827279629</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1690616599272667</v>
+        <v>0.1722752743883995</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2570738581924545</v>
+        <v>0.2576907154604789</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>62</v>
@@ -5640,19 +5640,19 @@
         <v>66501</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>53795</v>
+        <v>53027</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>83937</v>
+        <v>83068</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1786348495950952</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1445030833202033</v>
+        <v>0.1424409956821384</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2254721642232904</v>
+        <v>0.2231363919002347</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>130</v>
@@ -5661,19 +5661,19 @@
         <v>145160</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>123403</v>
+        <v>122065</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>168899</v>
+        <v>167137</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1939120600837717</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1648479409486853</v>
+        <v>0.1630609753263364</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2256235566125089</v>
+        <v>0.2232700692437514</v>
       </c>
     </row>
     <row r="10">
@@ -5690,19 +5690,19 @@
         <v>278277</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>259096</v>
+        <v>258106</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>294210</v>
+        <v>293605</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7394783426087118</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6885073787728672</v>
+        <v>0.6858779040401339</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7818175257245424</v>
+        <v>0.7802101634404457</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>282</v>
@@ -5711,19 +5711,19 @@
         <v>297289</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>280605</v>
+        <v>280806</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>311758</v>
+        <v>312462</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7985789488922566</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7537611114824855</v>
+        <v>0.7543010234009276</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8374433549384785</v>
+        <v>0.8393355043160203</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>547</v>
@@ -5732,19 +5732,19 @@
         <v>575566</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>549438</v>
+        <v>551172</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>598679</v>
+        <v>598856</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7688690935163832</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7339664792002685</v>
+        <v>0.7362826102399425</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7997447057893586</v>
+        <v>0.7999814040274716</v>
       </c>
     </row>
     <row r="11">
@@ -5836,19 +5836,19 @@
         <v>26718</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18319</v>
+        <v>17827</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>39188</v>
+        <v>37641</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05134892423203859</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03520617243478841</v>
+        <v>0.03426033415022323</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0753133738676845</v>
+        <v>0.07234060053160164</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -5857,19 +5857,19 @@
         <v>6982</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2387</v>
+        <v>2399</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>14582</v>
+        <v>14263</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04309696497043137</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0147348003337395</v>
+        <v>0.01480688281836459</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09001606303821807</v>
+        <v>0.0880445113843643</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>34</v>
@@ -5878,19 +5878,19 @@
         <v>33700</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>23555</v>
+        <v>23957</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>45724</v>
+        <v>47012</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04938975711045308</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03452110584301384</v>
+        <v>0.03511037174581777</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06701154657589224</v>
+        <v>0.06889997846719882</v>
       </c>
     </row>
     <row r="13">
@@ -5907,19 +5907,19 @@
         <v>102706</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>85352</v>
+        <v>84303</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>123787</v>
+        <v>121126</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1973875369026613</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1640356053227943</v>
+        <v>0.1620183575872921</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2379018042454346</v>
+        <v>0.2327886265077904</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -5928,19 +5928,19 @@
         <v>31672</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22073</v>
+        <v>21777</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43981</v>
+        <v>43787</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1955121208238647</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1362544534127432</v>
+        <v>0.1344312835102173</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.271495972959135</v>
+        <v>0.2702942884855991</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>124</v>
@@ -5949,19 +5949,19 @@
         <v>134378</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>112416</v>
+        <v>112257</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>154788</v>
+        <v>154233</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1969422785822566</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1647547662445936</v>
+        <v>0.1645221409761183</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2268547380548826</v>
+        <v>0.2260406083683688</v>
       </c>
     </row>
     <row r="14">
@@ -5978,19 +5978,19 @@
         <v>390903</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>368610</v>
+        <v>370833</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>409038</v>
+        <v>410866</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7512635388653002</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7084194859715184</v>
+        <v>0.7126929569670045</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7861165040095851</v>
+        <v>0.7896306290508867</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>116</v>
@@ -5999,19 +5999,19 @@
         <v>123342</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>109830</v>
+        <v>110109</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>134085</v>
+        <v>134576</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7613909142057039</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6779814139023836</v>
+        <v>0.6796990025366223</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8277075478324151</v>
+        <v>0.8307356010301488</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>493</v>
@@ -6020,19 +6020,19 @@
         <v>514245</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>491910</v>
+        <v>493102</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>536145</v>
+        <v>536918</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7536679643072903</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7209340968339754</v>
+        <v>0.7226817465774733</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7857638751471375</v>
+        <v>0.7868972253666671</v>
       </c>
     </row>
     <row r="15">
@@ -6124,19 +6124,19 @@
         <v>63604</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>50423</v>
+        <v>49368</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>79906</v>
+        <v>78215</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05547756036958697</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04398044872257838</v>
+        <v>0.04305983938862139</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06969613207584167</v>
+        <v>0.06822092401549841</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>32</v>
@@ -6145,19 +6145,19 @@
         <v>34946</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>24820</v>
+        <v>24897</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>48801</v>
+        <v>48637</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04245459934688531</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03015312108717199</v>
+        <v>0.03024590116622209</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05928609050691381</v>
+        <v>0.05908735737905207</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>98</v>
@@ -6166,19 +6166,19 @@
         <v>98550</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>81891</v>
+        <v>80768</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>120059</v>
+        <v>120566</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05003505332056803</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04157701884902548</v>
+        <v>0.04100693461574367</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06095521342513627</v>
+        <v>0.06121242932274458</v>
       </c>
     </row>
     <row r="17">
@@ -6195,19 +6195,19 @@
         <v>216631</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>192443</v>
+        <v>193557</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>245462</v>
+        <v>243160</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.188951599733406</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1678544035156004</v>
+        <v>0.1688261577388301</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2140986038972383</v>
+        <v>0.2120913347015818</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>192</v>
@@ -6216,19 +6216,19 @@
         <v>204152</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>179530</v>
+        <v>178298</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>230365</v>
+        <v>228479</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2480166941294944</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2181041070369991</v>
+        <v>0.2166066840350008</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.279861734425744</v>
+        <v>0.2775698814844021</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>399</v>
@@ -6237,19 +6237,19 @@
         <v>420783</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>384129</v>
+        <v>382911</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>460607</v>
+        <v>455085</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2136358625551489</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1950259016378142</v>
+        <v>0.1944077658621898</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2338545563287642</v>
+        <v>0.2310513622853752</v>
       </c>
     </row>
     <row r="18">
@@ -6266,19 +6266,19 @@
         <v>866254</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>834830</v>
+        <v>838500</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>891414</v>
+        <v>893478</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.755570839897007</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7281623434689016</v>
+        <v>0.7313636282021413</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.777516022268387</v>
+        <v>0.7793168330974406</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>571</v>
@@ -6287,19 +6287,19 @@
         <v>584041</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>557733</v>
+        <v>558773</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>609628</v>
+        <v>612178</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7095287065236203</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6775670557377287</v>
+        <v>0.678831427681271</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7406123756219931</v>
+        <v>0.74371109438553</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1398</v>
@@ -6308,19 +6308,19 @@
         <v>1450295</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1407667</v>
+        <v>1408687</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1487524</v>
+        <v>1489530</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7363290841242831</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7146861656753655</v>
+        <v>0.7152039986144613</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7552306323944069</v>
+        <v>0.7562491175340985</v>
       </c>
     </row>
     <row r="19">
@@ -6412,19 +6412,19 @@
         <v>38959</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>27640</v>
+        <v>27861</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>51883</v>
+        <v>52491</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06287889660881117</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04460949984913289</v>
+        <v>0.04496656119085731</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08373836952280211</v>
+        <v>0.08471880865844414</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>22</v>
@@ -6433,19 +6433,19 @@
         <v>24375</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>15627</v>
+        <v>14921</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>37834</v>
+        <v>35248</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03311640507371738</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02123180313492102</v>
+        <v>0.02027238577252619</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0514021181860092</v>
+        <v>0.04788894975215911</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>60</v>
@@ -6454,19 +6454,19 @@
         <v>63334</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>49522</v>
+        <v>49125</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>80494</v>
+        <v>81750</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04671932366258348</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0365303613977884</v>
+        <v>0.03623810000131552</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05937789481252116</v>
+        <v>0.06030403169911926</v>
       </c>
     </row>
     <row r="21">
@@ -6483,19 +6483,19 @@
         <v>99768</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>82162</v>
+        <v>80756</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>120449</v>
+        <v>118551</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1610237309265974</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1326067232754974</v>
+        <v>0.1303378948919481</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1944015946851397</v>
+        <v>0.1913382405505908</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>190</v>
@@ -6504,19 +6504,19 @@
         <v>204997</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>179829</v>
+        <v>181253</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>230565</v>
+        <v>230204</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2785136130935124</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2443205562066587</v>
+        <v>0.2462542640552257</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3132510995562721</v>
+        <v>0.3127601697264411</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>286</v>
@@ -6525,19 +6525,19 @@
         <v>304765</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>275578</v>
+        <v>272425</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>340360</v>
+        <v>335343</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2248149736416531</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2032848584568415</v>
+        <v>0.200958856084332</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2510720975861434</v>
+        <v>0.2473714807126203</v>
       </c>
     </row>
     <row r="22">
@@ -6554,19 +6554,19 @@
         <v>480861</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>457565</v>
+        <v>461361</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>500173</v>
+        <v>503569</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7760973724645914</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7384992999578811</v>
+        <v>0.7446248195161714</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8072665840694213</v>
+        <v>0.8127487155777079</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>485</v>
@@ -6575,19 +6575,19 @@
         <v>506667</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>480094</v>
+        <v>482177</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>532501</v>
+        <v>533253</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6883699818327703</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6522672857713829</v>
+        <v>0.6550975163968591</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7234685844657409</v>
+        <v>0.7244901501991049</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>947</v>
@@ -6596,19 +6596,19 @@
         <v>987527</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>953099</v>
+        <v>955328</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1021535</v>
+        <v>1021854</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7284657026957635</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7030694812721546</v>
+        <v>0.7047138142741749</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.75355209391348</v>
+        <v>0.753787507394918</v>
       </c>
     </row>
     <row r="23">
@@ -6700,19 +6700,19 @@
         <v>18221</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11400</v>
+        <v>11180</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>29078</v>
+        <v>28006</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06345538817966233</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03969998136719022</v>
+        <v>0.03893659173655011</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1012659166131221</v>
+        <v>0.09753138420118225</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>69</v>
@@ -6721,19 +6721,19 @@
         <v>78992</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>62813</v>
+        <v>62978</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>98039</v>
+        <v>100709</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07337531649213531</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05834684479316814</v>
+        <v>0.05849932243197425</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0910671842158178</v>
+        <v>0.0935473786241664</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>86</v>
@@ -6742,19 +6742,19 @@
         <v>97213</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>76630</v>
+        <v>79187</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>119647</v>
+        <v>118059</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07128654172194786</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05619280577356239</v>
+        <v>0.05806788132214766</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08773710370785855</v>
+        <v>0.08657233997885475</v>
       </c>
     </row>
     <row r="25">
@@ -6771,19 +6771,19 @@
         <v>26424</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17124</v>
+        <v>17942</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>37402</v>
+        <v>38199</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09202190462561341</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05963693581596291</v>
+        <v>0.06248243094611856</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1302534448263107</v>
+        <v>0.1330291204827494</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>239</v>
@@ -6792,19 +6792,19 @@
         <v>271269</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>238970</v>
+        <v>243999</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>302439</v>
+        <v>302557</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2519794062586709</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2219768790300618</v>
+        <v>0.2266483827406998</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2809331220152707</v>
+        <v>0.2810424480795448</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>264</v>
@@ -6813,19 +6813,19 @@
         <v>297693</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>268380</v>
+        <v>269503</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>330079</v>
+        <v>333662</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2182981957510058</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1968028537512722</v>
+        <v>0.1976265624236266</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.24204670185876</v>
+        <v>0.2446744920232786</v>
       </c>
     </row>
     <row r="26">
@@ -6842,19 +6842,19 @@
         <v>242500</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>228710</v>
+        <v>229142</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>253751</v>
+        <v>253958</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8445227071947242</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7964949469756977</v>
+        <v>0.7980013365928692</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8837021029393675</v>
+        <v>0.8844243253052143</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>679</v>
@@ -6863,19 +6863,19 @@
         <v>726291</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>695078</v>
+        <v>693120</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>763809</v>
+        <v>757671</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6746452772491938</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6456518681866468</v>
+        <v>0.6438331342307138</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.709494714192905</v>
+        <v>0.7037937311739517</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>909</v>
@@ -6884,19 +6884,19 @@
         <v>968792</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>935026</v>
+        <v>931336</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1001151</v>
+        <v>998539</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7104152625270463</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6856550218625954</v>
+        <v>0.682948897648616</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7341441073379554</v>
+        <v>0.7322287727162182</v>
       </c>
     </row>
     <row r="27">
@@ -6988,19 +6988,19 @@
         <v>182173</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>157405</v>
+        <v>157357</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>211980</v>
+        <v>209478</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05391409047047428</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04658400766844857</v>
+        <v>0.04656958464026949</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06273540643885926</v>
+        <v>0.06199493146952031</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>145</v>
@@ -7009,19 +7009,19 @@
         <v>162127</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>137091</v>
+        <v>138236</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>189639</v>
+        <v>189782</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04609740206945486</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03897901995861711</v>
+        <v>0.03930439537983463</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05391983623945095</v>
+        <v>0.05396039353167437</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>329</v>
@@ -7030,19 +7030,19 @@
         <v>344300</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>309381</v>
+        <v>309755</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>383864</v>
+        <v>383718</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04992747733840206</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04486372785380566</v>
+        <v>0.04491793695066769</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05566468617339312</v>
+        <v>0.05564340233697609</v>
       </c>
     </row>
     <row r="29">
@@ -7059,19 +7059,19 @@
         <v>601130</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>558347</v>
+        <v>553151</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>649016</v>
+        <v>648318</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1779040113068603</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1652424322968208</v>
+        <v>0.1637047497975039</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1920758566128434</v>
+        <v>0.1918693010277634</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>768</v>
@@ -7080,19 +7080,19 @@
         <v>840270</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>785931</v>
+        <v>791190</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>890317</v>
+        <v>889613</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2389129214188979</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2234626252990139</v>
+        <v>0.2249579652893136</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2531427302411911</v>
+        <v>0.252942564461256</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1329</v>
@@ -7101,19 +7101,19 @@
         <v>1441400</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1372919</v>
+        <v>1370844</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1508449</v>
+        <v>1513011</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2090193519406692</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1990887907114015</v>
+        <v>0.1987879864856764</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.218742161341732</v>
+        <v>0.2194037326941696</v>
       </c>
     </row>
     <row r="30">
@@ -7130,19 +7130,19 @@
         <v>2595653</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2541832</v>
+        <v>2548711</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2644610</v>
+        <v>2645357</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.7681818982226654</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7522537343676908</v>
+        <v>0.7542896373719125</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7826706177599666</v>
+        <v>0.7828918050559416</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2400</v>
@@ -7151,19 +7151,19 @@
         <v>2514659</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2459002</v>
+        <v>2461272</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2575611</v>
+        <v>2565817</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.7149896765116472</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.6991649775578347</v>
+        <v>0.6998102912325906</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.732320290651704</v>
+        <v>0.7295353787064853</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>4873</v>
@@ -7172,19 +7172,19 @@
         <v>5110312</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>5034632</v>
+        <v>5033105</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5183072</v>
+        <v>5189367</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7410531707209287</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7300788308533822</v>
+        <v>0.7298573437702878</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.7516043227724432</v>
+        <v>0.7525170434285097</v>
       </c>
     </row>
     <row r="31">
@@ -7518,19 +7518,19 @@
         <v>3796</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1484</v>
+        <v>1502</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9015</v>
+        <v>8665</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007029341969582418</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002748187254715322</v>
+        <v>0.002781572609303491</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01669110137548509</v>
+        <v>0.01604335236804656</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -7539,19 +7539,19 @@
         <v>8372</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4525</v>
+        <v>4731</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15792</v>
+        <v>15593</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.01735634410826893</v>
+        <v>0.01735634410826892</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009380501129471737</v>
+        <v>0.009807067920808134</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03273734740426411</v>
+        <v>0.03232388371905028</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -7560,19 +7560,19 @@
         <v>12169</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6787</v>
+        <v>7301</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19681</v>
+        <v>20145</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.01190150103038525</v>
+        <v>0.01190150103038524</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006637973768884514</v>
+        <v>0.007140430092712224</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01924850919416519</v>
+        <v>0.01970222308064607</v>
       </c>
     </row>
     <row r="5">
@@ -7589,19 +7589,19 @@
         <v>119555</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>101929</v>
+        <v>100698</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>141172</v>
+        <v>141283</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2213662064169022</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1887306024777042</v>
+        <v>0.18644986906305</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2613919182316133</v>
+        <v>0.2615975935259949</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>186</v>
@@ -7610,19 +7610,19 @@
         <v>122888</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>108165</v>
+        <v>107976</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>139590</v>
+        <v>142030</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2547490296464195</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2242271918147553</v>
+        <v>0.2238367458999946</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2893719127795077</v>
+        <v>0.2944315849842223</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>311</v>
@@ -7631,19 +7631,19 @@
         <v>242443</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>215397</v>
+        <v>220021</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>269621</v>
+        <v>270858</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2371158327352287</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2106639835531216</v>
+        <v>0.2151867026056055</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2636967127247833</v>
+        <v>0.2649061328183481</v>
       </c>
     </row>
     <row r="6">
@@ -7660,19 +7660,19 @@
         <v>416727</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>395574</v>
+        <v>395293</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>434519</v>
+        <v>436181</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7716044516135154</v>
+        <v>0.7716044516135155</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7324379480121159</v>
+        <v>0.7319164361432059</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8045477864776726</v>
+        <v>0.8076241741895818</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>479</v>
@@ -7681,19 +7681,19 @@
         <v>351128</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>333685</v>
+        <v>331927</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>366825</v>
+        <v>366490</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.7278946262453115</v>
+        <v>0.7278946262453114</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6917354728951803</v>
+        <v>0.688092235001203</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7604362398848459</v>
+        <v>0.7597418443106368</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>897</v>
@@ -7702,19 +7702,19 @@
         <v>767855</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>738616</v>
+        <v>740467</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>794113</v>
+        <v>793518</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.750982666234386</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7223857061715505</v>
+        <v>0.7241965260739948</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7766632237326369</v>
+        <v>0.7760819838149958</v>
       </c>
     </row>
     <row r="7">
@@ -7806,19 +7806,19 @@
         <v>5161</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2099</v>
+        <v>2300</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10589</v>
+        <v>11180</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0108284282070732</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.004402660671327457</v>
+        <v>0.004824421304348865</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02221529188116822</v>
+        <v>0.02345535824069147</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -7827,19 +7827,19 @@
         <v>4585</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2030</v>
+        <v>1948</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8742</v>
+        <v>8389</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01104653673017211</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.004890315164712418</v>
+        <v>0.004692726604536359</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02106150480366667</v>
+        <v>0.0202109049732568</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>15</v>
@@ -7848,19 +7848,19 @@
         <v>9746</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5740</v>
+        <v>5325</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>15941</v>
+        <v>16220</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01092994893378597</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006437031768817407</v>
+        <v>0.005971649860225405</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01787698461189138</v>
+        <v>0.01818992066809362</v>
       </c>
     </row>
     <row r="9">
@@ -7877,19 +7877,19 @@
         <v>102223</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>85226</v>
+        <v>84452</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>121666</v>
+        <v>119805</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2144559876793653</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1787989507333697</v>
+        <v>0.1771742133755817</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.255246421967798</v>
+        <v>0.2513414737466995</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>164</v>
@@ -7898,19 +7898,19 @@
         <v>109925</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>95664</v>
+        <v>94498</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>125825</v>
+        <v>126848</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2648408898720723</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2304828968175285</v>
+        <v>0.227672341281152</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3031481761565462</v>
+        <v>0.305612494551851</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>275</v>
@@ -7919,19 +7919,19 @@
         <v>212148</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>189779</v>
+        <v>191361</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>236094</v>
+        <v>237799</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2379081289037399</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2128226585060419</v>
+        <v>0.2145967240494367</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2647618256288311</v>
+        <v>0.2666734350660278</v>
       </c>
     </row>
     <row r="10">
@@ -7948,19 +7948,19 @@
         <v>369277</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>349771</v>
+        <v>350663</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>387576</v>
+        <v>387365</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.7747155841135613</v>
+        <v>0.7747155841135616</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.733794546571139</v>
+        <v>0.7356644127403696</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8131060932314863</v>
+        <v>0.8126627758527309</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>409</v>
@@ -7969,19 +7969,19 @@
         <v>300550</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>283826</v>
+        <v>283880</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>314750</v>
+        <v>316792</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.7241125733977556</v>
+        <v>0.7241125733977555</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6838181452380325</v>
+        <v>0.6839486315066838</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7583244144233633</v>
+        <v>0.7632427274987267</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>767</v>
@@ -7990,19 +7990,19 @@
         <v>669828</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>647456</v>
+        <v>643772</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>691787</v>
+        <v>692041</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.751161922162474</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7260736199144514</v>
+        <v>0.721942595683165</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7757881643723982</v>
+        <v>0.7760723068019423</v>
       </c>
     </row>
     <row r="11">
@@ -8094,19 +8094,19 @@
         <v>7757</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3636</v>
+        <v>3807</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15199</v>
+        <v>15325</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01678913502716552</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.007868669120564479</v>
+        <v>0.00823909217653152</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03289539570517654</v>
+        <v>0.03316772795286774</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -8115,19 +8115,19 @@
         <v>2922</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1030</v>
+        <v>1106</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6469</v>
+        <v>6363</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.01600622104015418</v>
+        <v>0.01600622104015417</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.005641880695811988</v>
+        <v>0.006058765503190359</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03543285276045052</v>
+        <v>0.03485323703682026</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>14</v>
@@ -8136,19 +8136,19 @@
         <v>10680</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5951</v>
+        <v>5469</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>17609</v>
+        <v>17789</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01656739590654497</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.009231892047262919</v>
+        <v>0.00848363174535857</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02731687861342517</v>
+        <v>0.02759512729082889</v>
       </c>
     </row>
     <row r="13">
@@ -8165,19 +8165,19 @@
         <v>141927</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>124290</v>
+        <v>120747</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>166292</v>
+        <v>164391</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3071661733044634</v>
+        <v>0.3071661733044633</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2689947931090768</v>
+        <v>0.2613267814384677</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3598968935944382</v>
+        <v>0.3557841401265447</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>85</v>
@@ -8186,19 +8186,19 @@
         <v>49943</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41322</v>
+        <v>40422</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>59906</v>
+        <v>60556</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2735510258597278</v>
+        <v>0.2735510258597279</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2263338493450335</v>
+        <v>0.2214029961568199</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3281191591073339</v>
+        <v>0.3316786504826031</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>238</v>
@@ -8207,19 +8207,19 @@
         <v>191870</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>169770</v>
+        <v>170451</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>216049</v>
+        <v>213732</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2976455958750324</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2633618058517881</v>
+        <v>0.2644184353133578</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3351540627085637</v>
+        <v>0.331559284200269</v>
       </c>
     </row>
     <row r="14">
@@ -8236,19 +8236,19 @@
         <v>312369</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>286809</v>
+        <v>290093</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>330387</v>
+        <v>333837</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6760446916683712</v>
+        <v>0.6760446916683711</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6207262575471476</v>
+        <v>0.6278335118338407</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7150403416967024</v>
+        <v>0.722506683967569</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>192</v>
@@ -8257,19 +8257,19 @@
         <v>129708</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>120167</v>
+        <v>118284</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>139368</v>
+        <v>139329</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7104427531001183</v>
+        <v>0.7104427531001182</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6581850814965232</v>
+        <v>0.6478704826431033</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7633527361600229</v>
+        <v>0.7631386784272552</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>510</v>
@@ -8278,19 +8278,19 @@
         <v>442077</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>419247</v>
+        <v>419320</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>464886</v>
+        <v>464784</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6857870082184225</v>
+        <v>0.6857870082184226</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6503707412895258</v>
+        <v>0.6504848928438598</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7211702119467718</v>
+        <v>0.721012331518874</v>
       </c>
     </row>
     <row r="15">
@@ -8382,19 +8382,19 @@
         <v>23346</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15898</v>
+        <v>15795</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32960</v>
+        <v>33065</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02163663143279173</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01473439463498959</v>
+        <v>0.01463815812015208</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03054709025986477</v>
+        <v>0.03064377821659495</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -8403,19 +8403,19 @@
         <v>14603</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8398</v>
+        <v>9001</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22952</v>
+        <v>24395</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01745420207857892</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01003755361820177</v>
+        <v>0.01075776173755429</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02743261219677614</v>
+        <v>0.02915776401742828</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>49</v>
@@ -8424,19 +8424,19 @@
         <v>37949</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27243</v>
+        <v>28026</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>50144</v>
+        <v>50123</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01980996467327685</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01422129516507769</v>
+        <v>0.01463012247999878</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02617559891145415</v>
+        <v>0.02616470365471031</v>
       </c>
     </row>
     <row r="17">
@@ -8453,19 +8453,19 @@
         <v>253009</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>226046</v>
+        <v>225917</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>281928</v>
+        <v>279250</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.234484036947648</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2094958045980639</v>
+        <v>0.2093764735384621</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2612858288691676</v>
+        <v>0.2588044377805763</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>426</v>
@@ -8474,19 +8474,19 @@
         <v>270700</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>249593</v>
+        <v>245609</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>295133</v>
+        <v>293786</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3235481113032361</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2983209197641988</v>
+        <v>0.2935588072831771</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3527512625637633</v>
+        <v>0.3511413757833629</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>714</v>
@@ -8495,19 +8495,19 @@
         <v>523709</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>490422</v>
+        <v>485387</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>562038</v>
+        <v>558138</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2733825742124658</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2560065161729858</v>
+        <v>0.2533782306715599</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2933910594650751</v>
+        <v>0.2913549148597768</v>
       </c>
     </row>
     <row r="18">
@@ -8524,19 +8524,19 @@
         <v>802647</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>772291</v>
+        <v>773157</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>830281</v>
+        <v>830273</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7438793316195603</v>
+        <v>0.7438793316195602</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7157464559045161</v>
+        <v>0.7165487346283625</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7694908015230926</v>
+        <v>0.7694829173703259</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>751</v>
@@ -8545,19 +8545,19 @@
         <v>551358</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>527014</v>
+        <v>529157</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>572918</v>
+        <v>576508</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.6589976866181849</v>
+        <v>0.658997686618185</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6299020230711235</v>
+        <v>0.6324631181703694</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6847672657439551</v>
+        <v>0.6890582829915927</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1518</v>
@@ -8566,19 +8566,19 @@
         <v>1354004</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1315605</v>
+        <v>1317679</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1389500</v>
+        <v>1393926</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.7068074611142575</v>
+        <v>0.7068074611142574</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6867627215027053</v>
+        <v>0.6878452114371948</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7253366518674413</v>
+        <v>0.7276472350019443</v>
       </c>
     </row>
     <row r="19">
@@ -8670,19 +8670,19 @@
         <v>10107</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5620</v>
+        <v>5325</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18514</v>
+        <v>17768</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01845422104179729</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01026073984770838</v>
+        <v>0.00972327924864856</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03380550916591282</v>
+        <v>0.03244299288876643</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>39</v>
@@ -8691,19 +8691,19 @@
         <v>25325</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>18267</v>
+        <v>18279</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>35261</v>
+        <v>34234</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.03173696831634164</v>
+        <v>0.03173696831634165</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02289200846922719</v>
+        <v>0.02290652054680956</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04418854820142118</v>
+        <v>0.04290193905767319</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>50</v>
@@ -8712,19 +8712,19 @@
         <v>35432</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>26587</v>
+        <v>26769</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>46766</v>
+        <v>46846</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.0263309142427317</v>
+        <v>0.02633091424273169</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01975804355211855</v>
+        <v>0.01989291122186131</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03475356324094084</v>
+        <v>0.03481294192167488</v>
       </c>
     </row>
     <row r="21">
@@ -8741,19 +8741,19 @@
         <v>129496</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>110551</v>
+        <v>109385</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>151709</v>
+        <v>149483</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2364464233831689</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2018561278348831</v>
+        <v>0.1997272838640622</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2770066071899198</v>
+        <v>0.2729409174814751</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>422</v>
@@ -8762,19 +8762,19 @@
         <v>247080</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>225683</v>
+        <v>227126</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>270552</v>
+        <v>269436</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.309636442891537</v>
+        <v>0.3096364428915371</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2828220864899901</v>
+        <v>0.2846303500679009</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3390512102041207</v>
+        <v>0.3376525567408138</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>554</v>
@@ -8783,19 +8783,19 @@
         <v>376576</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>347387</v>
+        <v>348116</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>408339</v>
+        <v>407727</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.2798482375652878</v>
+        <v>0.2798482375652877</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2581569862924945</v>
+        <v>0.258698705280223</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3034524203719624</v>
+        <v>0.3029980858546258</v>
       </c>
     </row>
     <row r="22">
@@ -8812,19 +8812,19 @@
         <v>408072</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>384938</v>
+        <v>386288</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>427850</v>
+        <v>427369</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.7450993555750339</v>
+        <v>0.7450993555750338</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7028597832087132</v>
+        <v>0.7053242880649292</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7812130529673807</v>
+        <v>0.7803354183510934</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>781</v>
@@ -8833,19 +8833,19 @@
         <v>525564</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>503103</v>
+        <v>501000</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>547809</v>
+        <v>548111</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6586265887921213</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6304788338482246</v>
+        <v>0.6278438664518579</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6865035586702327</v>
+        <v>0.6868822477800146</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1169</v>
@@ -8854,19 +8854,19 @@
         <v>933635</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>901438</v>
+        <v>900803</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>962706</v>
+        <v>961677</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6938208481919805</v>
+        <v>0.6938208481919804</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6698939396888861</v>
+        <v>0.6694218697734509</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7154247052670851</v>
+        <v>0.7146601663288117</v>
       </c>
     </row>
     <row r="23">
@@ -8971,19 +8971,19 @@
         <v>35189</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>24817</v>
+        <v>25793</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>47197</v>
+        <v>50034</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04325926893305935</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03050929986801273</v>
+        <v>0.03170829571377153</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05802203830754674</v>
+        <v>0.06150944301411686</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>47</v>
@@ -8992,19 +8992,19 @@
         <v>35189</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>25262</v>
+        <v>25569</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>48669</v>
+        <v>50220</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03360727014207256</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02412650273377821</v>
+        <v>0.02442022058095839</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04648201685935573</v>
+        <v>0.04796312077582635</v>
       </c>
     </row>
     <row r="25">
@@ -9021,19 +9021,19 @@
         <v>23579</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11990</v>
+        <v>11285</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>43186</v>
+        <v>39654</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1009289228265945</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05132288026806186</v>
+        <v>0.04830339274335705</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1848563590435058</v>
+        <v>0.1697400640802656</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>326</v>
@@ -9042,19 +9042,19 @@
         <v>191037</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>171044</v>
+        <v>169263</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>211733</v>
+        <v>212350</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2348529789501114</v>
+        <v>0.2348529789501113</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2102740913105822</v>
+        <v>0.2080843694645676</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2602955512770331</v>
+        <v>0.2610537673058105</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>340</v>
@@ -9063,19 +9063,19 @@
         <v>214616</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>190800</v>
+        <v>189080</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>241600</v>
+        <v>244736</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2049718723186403</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1822262713497909</v>
+        <v>0.1805827786276444</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.230743046381412</v>
+        <v>0.2337378082646624</v>
       </c>
     </row>
     <row r="26">
@@ -9092,19 +9092,19 @@
         <v>210039</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>190432</v>
+        <v>193964</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>221628</v>
+        <v>222333</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8990710771734056</v>
+        <v>0.8990710771734055</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8151436409564937</v>
+        <v>0.8302599359197343</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9486771197319381</v>
+        <v>0.951696607256643</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>742</v>
@@ -9113,19 +9113,19 @@
         <v>587208</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>564874</v>
+        <v>563168</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>610027</v>
+        <v>610855</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7218877521168294</v>
+        <v>0.7218877521168292</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.694430973295493</v>
+        <v>0.6923340105070768</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.749940219276874</v>
+        <v>0.7509579387891653</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>839</v>
@@ -9134,19 +9134,19 @@
         <v>797247</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>769271</v>
+        <v>765829</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>822868</v>
+        <v>825141</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7614208575392872</v>
+        <v>0.7614208575392871</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7347017567852016</v>
+        <v>0.7314149066066132</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7858905617547107</v>
+        <v>0.7880607769282169</v>
       </c>
     </row>
     <row r="27">
@@ -9238,19 +9238,19 @@
         <v>50168</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>38470</v>
+        <v>37669</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>64739</v>
+        <v>64476</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01502453226646829</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01152103813117399</v>
+        <v>0.01128110323020598</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01938827734373479</v>
+        <v>0.01930944958248504</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>131</v>
@@ -9259,19 +9259,19 @@
         <v>90997</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>75997</v>
+        <v>75805</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>109623</v>
+        <v>110369</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02579209073940668</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02154057353055954</v>
+        <v>0.02148619677472146</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03107150347598191</v>
+        <v>0.03128293903316957</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>192</v>
@@ -9280,19 +9280,19 @@
         <v>141165</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>118923</v>
+        <v>120970</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>162957</v>
+        <v>164622</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02055648382711425</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01731767520482331</v>
+        <v>0.01761576128333537</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02372980320585241</v>
+        <v>0.0239722448659314</v>
       </c>
     </row>
     <row r="29">
@@ -9309,19 +9309,19 @@
         <v>769788</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>719939</v>
+        <v>720737</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>819811</v>
+        <v>823156</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2305385473079462</v>
+        <v>0.2305385473079461</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2156094454785112</v>
+        <v>0.2158486434467483</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2455194670265364</v>
+        <v>0.2465213743106601</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1609</v>
@@ -9330,19 +9330,19 @@
         <v>991574</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>944450</v>
+        <v>946814</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1040512</v>
+        <v>1037984</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.281051483825963</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2676947907927003</v>
+        <v>0.268364766882868</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.294922734759709</v>
+        <v>0.2942060208631327</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2432</v>
@@ -9351,19 +9351,19 @@
         <v>1761362</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1692161</v>
+        <v>1693134</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1833039</v>
+        <v>1830765</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2564901238613445</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2464131084563977</v>
+        <v>0.2465547556750833</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.266927841826174</v>
+        <v>0.2665966836799583</v>
       </c>
     </row>
     <row r="30">
@@ -9380,19 +9380,19 @@
         <v>2519131</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2465950</v>
+        <v>2466957</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2570894</v>
+        <v>2573060</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.7544369204255854</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7385103802147803</v>
+        <v>0.738811791732861</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7699392899890297</v>
+        <v>0.7705878507604988</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3354</v>
@@ -9401,19 +9401,19 @@
         <v>2445515</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2396347</v>
+        <v>2395720</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2493151</v>
+        <v>2491842</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.6931564254346304</v>
+        <v>0.6931564254346303</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.6792203514758895</v>
+        <v>0.6790425907888671</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7066583893457004</v>
+        <v>0.7062872873476249</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>5700</v>
@@ -9422,19 +9422,19 @@
         <v>4964645</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>4888138</v>
+        <v>4894498</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5038742</v>
+        <v>5034089</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.7229533923115414</v>
+        <v>0.7229533923115412</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7118123915357422</v>
+        <v>0.7127384818581555</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.7337433559585954</v>
+        <v>0.7330657484412849</v>
       </c>
     </row>
     <row r="31">
